--- a/spotipy/songs.xlsx
+++ b/spotipy/songs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t xml:space="preserve">songs</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t xml:space="preserve">Fix You – Coldplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hold On We’re Going Home – Drake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I took a pill in ibiza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love yourself – justin bieber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">side to side ariana grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">truffle butter</t>
   </si>
 </sst>
 </file>
@@ -49,6 +64,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -134,16 +150,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="262" zoomScaleNormal="262" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -174,6 +189,31 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/spotipy/songs.xlsx
+++ b/spotipy/songs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">songs</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fix You – Coldplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trust Issues Drake</t>
   </si>
   <si>
     <t xml:space="preserve">Hold On We’re Going Home – Drake</t>
@@ -153,12 +156,13 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="262" zoomScaleNormal="262" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -188,32 +192,32 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
